--- a/medicine/Pharmacie/Classe_ATC_G02/Classe_ATC_G02.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_G02/Classe_ATC_G02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC G02, dénommée « Autres médicaments gynécologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QG02[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique G de la classification, intitulé « Système génito-urinaire et hormones sexuelles ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC G02, dénommée « Autres médicaments gynécologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QG02. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique G de la classification, intitulé « Système génito-urinaire et hormones sexuelles ».
 </t>
         </is>
       </c>
@@ -513,16 +525,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>G02AB Alcaloïdes de l'ergot
-G02AB01 Méthylergométrine
+          <t>G02AB Alcaloïdes de l'ergot</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>G02AB01 Méthylergométrine
 G02AB02 Alcaloïdes de l'ergot
 G02AB03 Ergométrine
-« QG02AB53 » Ergométrine en association
-G02AC Alcaloïdes de l'ergot et oxytocine et dérivés, en association
-G02AC01 Méthylergométrine et oxytocine
-« QG02AC90 » Ergométrine et oxytocine
-G02AD Prostaglandines
-G02AD01 Dinoprost
+« QG02AB53 » Ergométrine en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>G02A Utérotoniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>G02AC Alcaloïdes de l'ergot et oxytocine et dérivés, en association</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>G02AC01 Méthylergométrine et oxytocine
+« QG02AC90 » Ergométrine et oxytocine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>G02A Utérotoniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>G02AD Prostaglandines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>G02AD01 Dinoprost
 G02AD02 Dinoprostone
 G02AD03 Géméprost (en)
 G02AD04 Carboprost (en)
@@ -533,93 +618,273 @@
 « QG02AD92 » Fenprostalène
 « QG02AD93 » Tiaprost
 « QG02AD94 » Alfaprostol (en)
-« QG02AD95 » Étiprostone
-G02AX Autres utérotoniques
-Classe vide.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+« QG02AD95 » Étiprostone</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>G02A Utérotoniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>G02AX Autres utérotoniques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>G02B Contraceptifs à usage topique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>G02BA Contraceptifs intra-utérins
-G02BA01 DIU en plastique
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>G02BA Contraceptifs intra-utérins</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>G02BA01 DIU en plastique
 G02BA02 DIU en plastique avec du cuivre
-G02BA03 DIU en plastique avec des progestatifs
-G02BB Contraceptifs intravaginaux
-G02BB01 Anneau vaginal avec progestérone et estrogène</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G02</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+G02BA03 DIU en plastique avec des progestatifs</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>G02B Contraceptifs à usage topique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>G02BB Contraceptifs intravaginaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>G02BB01 Anneau vaginal avec progestérone et estrogène</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>G02C Autres médicaments gynécologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>G02CA Sympathomimétiques, inhibiteurs du travail
-G02CA01 Ritodrine (en)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G02CA Sympathomimétiques, inhibiteurs du travail</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>G02CA01 Ritodrine (en)
 G02CA02 Buphénine (en)
 G02CA03 Fénotérol (en)
 « QG02CA90 » Vétrabutine
-« QG02CA91 » Clenbutérol
-G02CB Inhibiteurs de la prolactine
-G02CB01 Bromocriptine
+« QG02CA91 » Clenbutérol</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>G02C Autres médicaments gynécologiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G02CB Inhibiteurs de la prolactine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>G02CB01 Bromocriptine
 G02CB02 Lisuride (en)
 G02CB03 Cabergoline
 G02CB04 Quinagolide (en)
 G02CB05 Métergoline (en)
-G02CB06 Terguride (en)
-G02CC Anti-inflammatoires à administration vaginale
-G02CC01 Ibuprofène
+G02CB06 Terguride (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>G02C Autres médicaments gynécologiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>G02CC Anti-inflammatoires à administration vaginale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>G02CC01 Ibuprofène
 G02CC02 Naproxène
 G02CC03 Benzydamine
-G02CC04 Flunoxaprofène (en)
-G02CX Autres médicaments gynécologiques
-G02CX01 Atosiban
+G02CC04 Flunoxaprofène (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>G02C Autres médicaments gynécologiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>G02CX Autres médicaments gynécologiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>G02CX01 Atosiban
 G02CX02 Flibansérine
 G02CX03 Agni casti fructus
 G02CX04 Cimifugae rhizoma
